--- a/react-project-repository.xlsx
+++ b/react-project-repository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathees-2024\react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5456E688-7B7A-47F7-8005-CAAB8D2CB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE7EB8-42C8-4A1D-8315-25E51A5EB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t>S.No</t>
   </si>
@@ -268,6 +268,37 @@
   </si>
   <si>
     <t>react-call-function</t>
+  </si>
+  <si>
+    <t>Reactjs + Spring Boot CRUD Full Stack Application</t>
+  </si>
+  <si>
+    <t>React - JS, Springboot, REST, MySQL</t>
+  </si>
+  <si>
+    <t>springboot-react-mysql-CURD</t>
+  </si>
+  <si>
+    <t>D:\react-development\react-springboot\my-app</t>
+  </si>
+  <si>
+    <t>my-app</t>
+  </si>
+  <si>
+    <t>Reactjs + Spring Boot -User CURD integration without DB</t>
+  </si>
+  <si>
+    <t>React - JS, Springboot, REST</t>
+  </si>
+  <si>
+    <t>// React code - D:\react-development\react-springboot-sathees\my-test-get
+// Springboot code - D:\springboot-development\reactspringbootwebsevice</t>
+  </si>
+  <si>
+    <t>springboot-react-User-CURD</t>
+  </si>
+  <si>
+    <t>my-test-get</t>
   </si>
 </sst>
 </file>
@@ -324,15 +355,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,13 +653,13 @@
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -675,7 +704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -706,10 +735,10 @@
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -720,7 +749,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -747,7 +776,7 @@
       <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -761,7 +790,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -788,7 +817,7 @@
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -802,7 +831,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -829,7 +858,7 @@
       <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -843,7 +872,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -884,7 +913,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -925,7 +954,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1165,6 +1194,84 @@
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
